--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.64551559953041</v>
+        <v>1.754972666666667</v>
       </c>
       <c r="H2">
-        <v>1.64551559953041</v>
+        <v>5.264918</v>
       </c>
       <c r="I2">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="J2">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q2">
-        <v>20.78943140719222</v>
+        <v>29.01953304682399</v>
       </c>
       <c r="R2">
-        <v>20.78943140719222</v>
+        <v>261.175797421416</v>
       </c>
       <c r="S2">
-        <v>0.08993244153073604</v>
+        <v>0.1083762389050867</v>
       </c>
       <c r="T2">
-        <v>0.08993244153073604</v>
+        <v>0.1083762389050867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.64551559953041</v>
+        <v>1.754972666666667</v>
       </c>
       <c r="H3">
-        <v>1.64551559953041</v>
+        <v>5.264918</v>
       </c>
       <c r="I3">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="J3">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N3">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q3">
-        <v>66.7748990031737</v>
+        <v>71.28809652276178</v>
       </c>
       <c r="R3">
-        <v>66.7748990031737</v>
+        <v>641.5928687048561</v>
       </c>
       <c r="S3">
-        <v>0.2888597375609888</v>
+        <v>0.266232256989582</v>
       </c>
       <c r="T3">
-        <v>0.2888597375609888</v>
+        <v>0.266232256989582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.64551559953041</v>
+        <v>1.754972666666667</v>
       </c>
       <c r="H4">
-        <v>1.64551559953041</v>
+        <v>5.264918</v>
       </c>
       <c r="I4">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="J4">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N4">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q4">
-        <v>32.04531643652012</v>
+        <v>36.547707672074</v>
       </c>
       <c r="R4">
-        <v>32.04531643652012</v>
+        <v>328.929369048666</v>
       </c>
       <c r="S4">
-        <v>0.1386239714937209</v>
+        <v>0.1364909315291501</v>
       </c>
       <c r="T4">
-        <v>0.1386239714937209</v>
+        <v>0.1364909315291501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.53473997940454</v>
+        <v>1.678748</v>
       </c>
       <c r="H5">
-        <v>1.53473997940454</v>
+        <v>5.036244</v>
       </c>
       <c r="I5">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="J5">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N5">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q5">
-        <v>19.38989307595235</v>
+        <v>27.759112143792</v>
       </c>
       <c r="R5">
-        <v>19.38989307595235</v>
+        <v>249.832009294128</v>
       </c>
       <c r="S5">
-        <v>0.08387821634876641</v>
+        <v>0.1036690757440685</v>
       </c>
       <c r="T5">
-        <v>0.08387821634876641</v>
+        <v>0.1036690757440685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.53473997940454</v>
+        <v>1.678748</v>
       </c>
       <c r="H6">
-        <v>1.53473997940454</v>
+        <v>5.036244</v>
       </c>
       <c r="I6">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="J6">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q6">
-        <v>62.27963268784382</v>
+        <v>68.19180249040534</v>
       </c>
       <c r="R6">
-        <v>62.27963268784382</v>
+        <v>613.7262224136481</v>
       </c>
       <c r="S6">
-        <v>0.2694137860508079</v>
+        <v>0.2546688489488802</v>
       </c>
       <c r="T6">
-        <v>0.2694137860508079</v>
+        <v>0.2546688489488802</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.53473997940454</v>
+        <v>1.678748</v>
       </c>
       <c r="H7">
-        <v>1.53473997940454</v>
+        <v>5.036244</v>
       </c>
       <c r="I7">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="J7">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N7">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q7">
-        <v>29.88803527710827</v>
+        <v>34.960311533292</v>
       </c>
       <c r="R7">
-        <v>29.88803527710827</v>
+        <v>314.642803799628</v>
       </c>
       <c r="S7">
-        <v>0.1292918470149799</v>
+        <v>0.1305626478832325</v>
       </c>
       <c r="T7">
-        <v>0.1292918470149799</v>
+        <v>0.1305626478832326</v>
       </c>
     </row>
   </sheetData>
